--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Myoc</t>
+  </si>
+  <si>
+    <t>Fzd4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Myoc</t>
-  </si>
-  <si>
-    <t>Fzd4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H2">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I2">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J2">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.25040933333333</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N2">
-        <v>81.751228</v>
+        <v>79.813328</v>
       </c>
       <c r="O2">
-        <v>0.455635031912059</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P2">
-        <v>0.4556350319120589</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q2">
-        <v>8.933229187653335</v>
+        <v>27.34871081841422</v>
       </c>
       <c r="R2">
-        <v>80.39906268888001</v>
+        <v>246.138397365728</v>
       </c>
       <c r="S2">
-        <v>0.004350248779196556</v>
+        <v>0.0167773190063376</v>
       </c>
       <c r="T2">
-        <v>0.004350248779196556</v>
+        <v>0.0167773190063376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H3">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I3">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J3">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2346105337346748</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P3">
-        <v>0.2346105337346747</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q3">
-        <v>4.599799227233333</v>
+        <v>14.42401361686778</v>
       </c>
       <c r="R3">
-        <v>41.3981930451</v>
+        <v>129.81612255181</v>
       </c>
       <c r="S3">
-        <v>0.002239981819841517</v>
+        <v>0.008848544247980022</v>
       </c>
       <c r="T3">
-        <v>0.002239981819841517</v>
+        <v>0.008848544247980022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +646,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H4">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I4">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J4">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3744183333333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N4">
-        <v>1.123255</v>
+        <v>0.606637</v>
       </c>
       <c r="O4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q4">
-        <v>0.1227418180333333</v>
+        <v>0.2078692907624444</v>
       </c>
       <c r="R4">
-        <v>1.1046763623</v>
+        <v>1.870823616862</v>
       </c>
       <c r="S4">
-        <v>5.977205250637247E-05</v>
+        <v>0.0001275193344906959</v>
       </c>
       <c r="T4">
-        <v>5.977205250637246E-05</v>
+        <v>0.0001275193344906959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H5">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I5">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J5">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,43 +741,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.009092</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N5">
-        <v>54.027276</v>
+        <v>16.624701</v>
       </c>
       <c r="O5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q5">
-        <v>5.903740539440001</v>
+        <v>5.696594184014</v>
       </c>
       <c r="R5">
-        <v>53.13366485496001</v>
+        <v>51.269347656126</v>
       </c>
       <c r="S5">
-        <v>0.002874967107066763</v>
+        <v>0.003494628266371498</v>
       </c>
       <c r="T5">
-        <v>0.002874967107066763</v>
+        <v>0.003494628266371498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3278200000000001</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H6">
-        <v>0.9834600000000001</v>
+        <v>100.554517</v>
       </c>
       <c r="I6">
-        <v>0.009547660900745198</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J6">
-        <v>0.009547660900745198</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1421396666666666</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N6">
-        <v>0.4264189999999999</v>
+        <v>79.813328</v>
       </c>
       <c r="O6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q6">
-        <v>0.04659622552666667</v>
+        <v>891.7322941336196</v>
       </c>
       <c r="R6">
-        <v>0.41936602974</v>
+        <v>8025.590647202576</v>
       </c>
       <c r="S6">
-        <v>2.269114213398991E-05</v>
+        <v>0.547041404118386</v>
       </c>
       <c r="T6">
-        <v>2.269114213398991E-05</v>
+        <v>0.5470414041183859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>100.554517</v>
       </c>
       <c r="I7">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J7">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.25040933333333</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N7">
-        <v>81.751228</v>
+        <v>42.094435</v>
       </c>
       <c r="O7">
-        <v>0.455635031912059</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P7">
-        <v>0.4556350319120589</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q7">
-        <v>913.3839161885418</v>
+        <v>470.3095088680994</v>
       </c>
       <c r="R7">
-        <v>8220.455245696876</v>
+        <v>4232.785579812896</v>
       </c>
       <c r="S7">
-        <v>0.4447940585503725</v>
+        <v>0.2885157079024462</v>
       </c>
       <c r="T7">
-        <v>0.4447940585503724</v>
+        <v>0.2885157079024462</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>100.554517</v>
       </c>
       <c r="I8">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J8">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>14.03147833333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N8">
-        <v>42.094435</v>
+        <v>0.606637</v>
       </c>
       <c r="O8">
-        <v>0.2346105337346748</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P8">
-        <v>0.2346105337346747</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q8">
-        <v>470.3095088680994</v>
+        <v>6.777787836592111</v>
       </c>
       <c r="R8">
-        <v>4232.785579812895</v>
+        <v>61.000090529329</v>
       </c>
       <c r="S8">
-        <v>0.2290284200505814</v>
+        <v>0.004157896489044603</v>
       </c>
       <c r="T8">
-        <v>0.2290284200505813</v>
+        <v>0.004157896489044602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +977,10 @@
         <v>100.554517</v>
       </c>
       <c r="I9">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J9">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,42 +989,42 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3744183333333333</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N9">
-        <v>1.123255</v>
+        <v>16.624701</v>
       </c>
       <c r="O9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q9">
-        <v>12.54981822142611</v>
+        <v>185.743197702713</v>
       </c>
       <c r="R9">
-        <v>112.948363992835</v>
+        <v>1671.688779324417</v>
       </c>
       <c r="S9">
-        <v>0.006111432971220916</v>
+        <v>0.1139458785390873</v>
       </c>
       <c r="T9">
-        <v>0.006111432971220916</v>
+        <v>0.1139458785390873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.51817233333333</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H10">
-        <v>100.554517</v>
+        <v>1.802095</v>
       </c>
       <c r="I10">
-        <v>0.9762068923537492</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J10">
-        <v>0.9762068923537494</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,43 +1051,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.009092</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N10">
-        <v>54.027276</v>
+        <v>79.813328</v>
       </c>
       <c r="O10">
-        <v>0.3011174293844444</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P10">
-        <v>0.3011174293844444</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q10">
-        <v>603.6318492228546</v>
+        <v>15.98124436912889</v>
       </c>
       <c r="R10">
-        <v>5432.686643005693</v>
+        <v>143.83119932216</v>
       </c>
       <c r="S10">
-        <v>0.293952909972938</v>
+        <v>0.009803841821991175</v>
       </c>
       <c r="T10">
-        <v>0.293952909972938</v>
+        <v>0.009803841821991175</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.51817233333333</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H11">
-        <v>100.554517</v>
+        <v>1.802095</v>
       </c>
       <c r="I11">
-        <v>0.9762068923537492</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J11">
-        <v>0.9762068923537494</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1421396666666666</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N11">
-        <v>0.4264189999999999</v>
+        <v>42.094435</v>
       </c>
       <c r="O11">
-        <v>0.00237661793499797</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P11">
-        <v>0.00237661793499797</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q11">
-        <v>4.764261842735888</v>
+        <v>8.428685649036112</v>
       </c>
       <c r="R11">
-        <v>42.87835658462299</v>
+        <v>75.85817084132501</v>
       </c>
       <c r="S11">
-        <v>0.002320070808636553</v>
+        <v>0.005170654985419091</v>
       </c>
       <c r="T11">
-        <v>0.002320070808636553</v>
+        <v>0.005170654985419091</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6006983333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.802095</v>
+      </c>
+      <c r="I12">
+        <v>0.01709110209585615</v>
+      </c>
+      <c r="J12">
+        <v>0.01709110209585615</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>0.023649</v>
-      </c>
-      <c r="H12">
-        <v>0.070947</v>
-      </c>
-      <c r="I12">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J12">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>27.25040933333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N12">
-        <v>81.751228</v>
+        <v>0.606637</v>
       </c>
       <c r="O12">
-        <v>0.455635031912059</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P12">
-        <v>0.4556350319120589</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q12">
-        <v>0.644444930324</v>
+        <v>0.1214686116127778</v>
       </c>
       <c r="R12">
-        <v>5.800004372916</v>
+        <v>1.093217504515</v>
       </c>
       <c r="S12">
-        <v>0.0003138278121506294</v>
+        <v>7.451604062127645E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003138278121506294</v>
+        <v>7.451604062127645E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.023649</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H13">
-        <v>0.070947</v>
+        <v>1.802095</v>
       </c>
       <c r="I13">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J13">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,524 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.03147833333333</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N13">
-        <v>42.094435</v>
+        <v>16.624701</v>
       </c>
       <c r="O13">
-        <v>0.2346105337346748</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P13">
-        <v>0.2346105337346747</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q13">
-        <v>0.331830431105</v>
+        <v>3.328810060955</v>
       </c>
       <c r="R13">
-        <v>2.986473879945</v>
+        <v>29.959290548595</v>
       </c>
       <c r="S13">
-        <v>0.0001615927339925326</v>
+        <v>0.002042089247824605</v>
       </c>
       <c r="T13">
-        <v>0.0001615927339925325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.023649</v>
-      </c>
-      <c r="H14">
-        <v>0.070947</v>
-      </c>
-      <c r="I14">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J14">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.3744183333333333</v>
-      </c>
-      <c r="N14">
-        <v>1.123255</v>
-      </c>
-      <c r="O14">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="P14">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="Q14">
-        <v>0.008854619164999999</v>
-      </c>
-      <c r="R14">
-        <v>0.07969157248499999</v>
-      </c>
-      <c r="S14">
-        <v>4.311967755851389E-06</v>
-      </c>
-      <c r="T14">
-        <v>4.311967755851388E-06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.023649</v>
-      </c>
-      <c r="H15">
-        <v>0.070947</v>
-      </c>
-      <c r="I15">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J15">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>18.009092</v>
-      </c>
-      <c r="N15">
-        <v>54.027276</v>
-      </c>
-      <c r="O15">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="P15">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="Q15">
-        <v>0.425897016708</v>
-      </c>
-      <c r="R15">
-        <v>3.833073150372</v>
-      </c>
-      <c r="S15">
-        <v>0.0002074006989049536</v>
-      </c>
-      <c r="T15">
-        <v>0.0002074006989049536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.023649</v>
-      </c>
-      <c r="H16">
-        <v>0.070947</v>
-      </c>
-      <c r="I16">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J16">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.1421396666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.4264189999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="P16">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="Q16">
-        <v>0.003361460976999999</v>
-      </c>
-      <c r="R16">
-        <v>0.03025314879299999</v>
-      </c>
-      <c r="S16">
-        <v>1.636943506578999E-06</v>
-      </c>
-      <c r="T16">
-        <v>1.636943506578998E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H17">
-        <v>1.39641</v>
-      </c>
-      <c r="I17">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J17">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>27.25040933333333</v>
-      </c>
-      <c r="N17">
-        <v>81.751228</v>
-      </c>
-      <c r="O17">
-        <v>0.455635031912059</v>
-      </c>
-      <c r="P17">
-        <v>0.4556350319120589</v>
-      </c>
-      <c r="Q17">
-        <v>12.68424803238667</v>
-      </c>
-      <c r="R17">
-        <v>114.15823229148</v>
-      </c>
-      <c r="S17">
-        <v>0.006176896770339274</v>
-      </c>
-      <c r="T17">
-        <v>0.006176896770339274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H18">
-        <v>1.39641</v>
-      </c>
-      <c r="I18">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J18">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>14.03147833333333</v>
-      </c>
-      <c r="N18">
-        <v>42.094435</v>
-      </c>
-      <c r="O18">
-        <v>0.2346105337346748</v>
-      </c>
-      <c r="P18">
-        <v>0.2346105337346747</v>
-      </c>
-      <c r="Q18">
-        <v>6.531232219816667</v>
-      </c>
-      <c r="R18">
-        <v>58.78108997835</v>
-      </c>
-      <c r="S18">
-        <v>0.003180539130259383</v>
-      </c>
-      <c r="T18">
-        <v>0.003180539130259383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H19">
-        <v>1.39641</v>
-      </c>
-      <c r="I19">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J19">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.3744183333333333</v>
-      </c>
-      <c r="N19">
-        <v>1.123255</v>
-      </c>
-      <c r="O19">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="P19">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="Q19">
-        <v>0.1742805016166667</v>
-      </c>
-      <c r="R19">
-        <v>1.56852451455</v>
-      </c>
-      <c r="S19">
-        <v>8.487004234073941E-05</v>
-      </c>
-      <c r="T19">
-        <v>8.487004234073941E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H20">
-        <v>1.39641</v>
-      </c>
-      <c r="I20">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J20">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>18.009092</v>
-      </c>
-      <c r="N20">
-        <v>54.027276</v>
-      </c>
-      <c r="O20">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="P20">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="Q20">
-        <v>8.38269205324</v>
-      </c>
-      <c r="R20">
-        <v>75.44422847916</v>
-      </c>
-      <c r="S20">
-        <v>0.004082151605534642</v>
-      </c>
-      <c r="T20">
-        <v>0.004082151605534642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H21">
-        <v>1.39641</v>
-      </c>
-      <c r="I21">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J21">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.1421396666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.4264189999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="P21">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="Q21">
-        <v>0.06616175064333332</v>
-      </c>
-      <c r="R21">
-        <v>0.59545575579</v>
-      </c>
-      <c r="S21">
-        <v>3.221904072084768E-05</v>
-      </c>
-      <c r="T21">
-        <v>3.221904072084767E-05</v>
+        <v>0.002042089247824606</v>
       </c>
     </row>
   </sheetData>
